--- a/results/summary_gurobi_with_initialization.xlsx
+++ b/results/summary_gurobi_with_initialization.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ113"/>
+  <dimension ref="A1:AR113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>RelGap</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -692,6 +704,46 @@
           <t>max</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -778,7 +830,7 @@
         <v>0.01</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -803,6 +855,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>564.91</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -916,6 +992,30 @@
       <c r="AJ5" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1028,6 +1128,30 @@
       <c r="AJ6" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1140,6 +1264,30 @@
       <c r="AJ7" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1252,6 +1400,30 @@
       <c r="AJ8" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1320,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1329,13 +1501,13 @@
         <v>0.01</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB9" t="n">
         <v>0.02</v>
@@ -1363,6 +1535,30 @@
       </c>
       <c r="AJ9" t="n">
         <v>748.29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -1432,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1447,10 +1643,10 @@
         <v>0.01</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AC10" t="n">
         <v>5</v>
@@ -1475,6 +1671,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>746.0599999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1782,7 @@
         <v>0.01</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AC11" t="n">
         <v>5</v>
@@ -1587,6 +1807,30 @@
       </c>
       <c r="AJ11" t="n">
         <v>746.0599999999999</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="12">
@@ -1656,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1671,7 +1915,7 @@
         <v>0.01</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" t="n">
         <v>0.02</v>
@@ -1699,6 +1943,30 @@
       </c>
       <c r="AJ12" t="n">
         <v>746.0599999999999</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
@@ -1768,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1811,6 +2079,30 @@
       </c>
       <c r="AJ13" t="n">
         <v>746.0599999999999</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
@@ -1880,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1895,7 +2187,7 @@
         <v>0.02</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB14" t="n">
         <v>0.03</v>
@@ -1923,6 +2215,30 @@
       </c>
       <c r="AJ14" t="n">
         <v>840.8099999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -1992,25 +2308,25 @@
         <v>5</v>
       </c>
       <c r="V15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.02</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.01</v>
       </c>
       <c r="Y15" t="n">
         <v>0.02</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AC15" t="n">
         <v>5</v>
@@ -2035,6 +2351,30 @@
       </c>
       <c r="AJ15" t="n">
         <v>811.23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
@@ -2104,10 +2444,10 @@
         <v>5</v>
       </c>
       <c r="V16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.02</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0.02</v>
@@ -2116,13 +2456,13 @@
         <v>0.02</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AC16" t="n">
         <v>5</v>
@@ -2147,6 +2487,30 @@
       </c>
       <c r="AJ16" t="n">
         <v>811.23</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="17">
@@ -2216,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X17" t="n">
         <v>0.02</v>
@@ -2228,13 +2592,13 @@
         <v>0.02</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AC17" t="n">
         <v>5</v>
@@ -2259,6 +2623,30 @@
       </c>
       <c r="AJ17" t="n">
         <v>811.23</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="18">
@@ -2328,25 +2716,25 @@
         <v>5</v>
       </c>
       <c r="V18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.02</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0.02</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AC18" t="n">
         <v>5</v>
@@ -2371,6 +2759,30 @@
       </c>
       <c r="AJ18" t="n">
         <v>811.23</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
@@ -2440,25 +2852,25 @@
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AC19" t="n">
         <v>5</v>
@@ -2483,6 +2895,30 @@
       </c>
       <c r="AJ19" t="n">
         <v>828.33</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="20">
@@ -2552,25 +2988,25 @@
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X20" t="n">
         <v>0.02</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AC20" t="n">
         <v>5</v>
@@ -2595,6 +3031,30 @@
       </c>
       <c r="AJ20" t="n">
         <v>817.26</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -2664,10 +3124,10 @@
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X21" t="n">
         <v>0.02</v>
@@ -2676,13 +3136,13 @@
         <v>0.02</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AC21" t="n">
         <v>5</v>
@@ -2707,6 +3167,30 @@
       </c>
       <c r="AJ21" t="n">
         <v>817.26</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
@@ -2776,25 +3260,25 @@
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X22" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AC22" t="n">
         <v>5</v>
@@ -2819,6 +3303,30 @@
       </c>
       <c r="AJ22" t="n">
         <v>817.26</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="23">
@@ -2888,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X23" t="n">
         <v>0.02</v>
@@ -2903,10 +3411,10 @@
         <v>0.02</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AC23" t="n">
         <v>5</v>
@@ -2931,6 +3439,30 @@
       </c>
       <c r="AJ23" t="n">
         <v>817.26</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -3000,25 +3532,25 @@
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
@@ -3043,6 +3575,30 @@
       </c>
       <c r="AJ24" t="n">
         <v>899.28</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
@@ -3112,25 +3668,25 @@
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W25" t="n">
         <v>0.01</v>
       </c>
       <c r="X25" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AC25" t="n">
         <v>5</v>
@@ -3155,6 +3711,30 @@
       </c>
       <c r="AJ25" t="n">
         <v>899.28</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
@@ -3224,25 +3804,25 @@
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X26" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AC26" t="n">
         <v>5</v>
@@ -3267,6 +3847,30 @@
       </c>
       <c r="AJ26" t="n">
         <v>899.28</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
@@ -3336,25 +3940,25 @@
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AC27" t="n">
         <v>5</v>
@@ -3379,6 +3983,30 @@
       </c>
       <c r="AJ27" t="n">
         <v>899.28</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="28">
@@ -3448,25 +4076,25 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W28" t="n">
         <v>0.03</v>
       </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
       <c r="X28" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="AC28" t="n">
         <v>5</v>
@@ -3491,6 +4119,30 @@
       </c>
       <c r="AJ28" t="n">
         <v>899.28</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="29">
@@ -3563,22 +4215,22 @@
         <v>0.06</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.05</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.06</v>
       </c>
       <c r="AA29" t="n">
         <v>0.06</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AC29" t="n">
         <v>5</v>
@@ -3603,6 +4255,30 @@
       </c>
       <c r="AJ29" t="n">
         <v>918.99</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="30">
@@ -3672,25 +4348,25 @@
         <v>5</v>
       </c>
       <c r="V30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y30" t="n">
         <v>0.06</v>
       </c>
-      <c r="W30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z30" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AC30" t="n">
         <v>5</v>
@@ -3715,6 +4391,30 @@
       </c>
       <c r="AJ30" t="n">
         <v>918.99</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
@@ -3784,25 +4484,25 @@
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X31" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y31" t="n">
         <v>0.05</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" t="n">
         <v>5</v>
@@ -3827,6 +4527,30 @@
       </c>
       <c r="AJ31" t="n">
         <v>918.99</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
@@ -3899,10 +4623,10 @@
         <v>0.06</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y32" t="n">
         <v>0.06</v>
@@ -3914,7 +4638,7 @@
         <v>0.06</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" t="n">
         <v>5</v>
@@ -3939,6 +4663,30 @@
       </c>
       <c r="AJ32" t="n">
         <v>918.99</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
@@ -4008,25 +4756,25 @@
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="X33" t="n">
         <v>0.05</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z33" t="n">
         <v>0.06</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AC33" t="n">
         <v>5</v>
@@ -4051,6 +4799,30 @@
       </c>
       <c r="AJ33" t="n">
         <v>918.99</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="34">
@@ -4120,25 +4892,25 @@
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AC34" t="n">
         <v>5</v>
@@ -4163,6 +4935,30 @@
       </c>
       <c r="AJ34" t="n">
         <v>996.4</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="35">
@@ -4232,25 +5028,25 @@
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X35" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="AC35" t="n">
         <v>5</v>
@@ -4275,6 +5071,30 @@
       </c>
       <c r="AJ35" t="n">
         <v>983.14</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
@@ -4344,25 +5164,25 @@
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AC36" t="n">
         <v>5</v>
@@ -4387,6 +5207,30 @@
       </c>
       <c r="AJ36" t="n">
         <v>983.14</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="37">
@@ -4456,25 +5300,25 @@
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="AC37" t="n">
         <v>5</v>
@@ -4499,6 +5343,30 @@
       </c>
       <c r="AJ37" t="n">
         <v>983.14</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
@@ -4568,25 +5436,25 @@
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="X38" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AC38" t="n">
         <v>5</v>
@@ -4611,6 +5479,30 @@
       </c>
       <c r="AJ38" t="n">
         <v>983.14</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
@@ -4680,25 +5572,25 @@
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X39" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="AC39" t="n">
         <v>5</v>
@@ -4723,6 +5615,30 @@
       </c>
       <c r="AJ39" t="n">
         <v>1038.93</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
@@ -4792,25 +5708,25 @@
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="X40" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="AC40" t="n">
         <v>5</v>
@@ -4835,6 +5751,30 @@
       </c>
       <c r="AJ40" t="n">
         <v>1038.94</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -4904,25 +5844,25 @@
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="X41" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="AC41" t="n">
         <v>5</v>
@@ -4947,6 +5887,30 @@
       </c>
       <c r="AJ41" t="n">
         <v>1038.93</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
@@ -5016,25 +5980,25 @@
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="X42" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="AC42" t="n">
         <v>5</v>
@@ -5059,6 +6023,30 @@
       </c>
       <c r="AJ42" t="n">
         <v>1038.93</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="43">
@@ -5128,25 +6116,25 @@
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="W43" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="X43" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="AC43" t="n">
         <v>5</v>
@@ -5171,6 +6159,30 @@
       </c>
       <c r="AJ43" t="n">
         <v>1038.93</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
@@ -5240,25 +6252,25 @@
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.7</v>
+        <v>0.08</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.75</v>
+        <v>0.12</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
       <c r="AC44" t="n">
         <v>5</v>
@@ -5283,6 +6295,30 @@
       </c>
       <c r="AJ44" t="n">
         <v>1234.08</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="45">
@@ -5352,25 +6388,25 @@
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.85</v>
+        <v>0.17</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="X45" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.84</v>
+        <v>0.19</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="AC45" t="n">
         <v>5</v>
@@ -5395,6 +6431,30 @@
       </c>
       <c r="AJ45" t="n">
         <v>1234.08</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="46">
@@ -5464,25 +6524,25 @@
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="X46" t="n">
-        <v>0.77</v>
+        <v>0.09</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.87</v>
+        <v>0.37</v>
       </c>
       <c r="AC46" t="n">
         <v>5</v>
@@ -5507,6 +6567,30 @@
       </c>
       <c r="AJ46" t="n">
         <v>1234.08</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="47">
@@ -5576,25 +6660,25 @@
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="X47" t="n">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.78</v>
+        <v>0.13</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="AC47" t="n">
         <v>5</v>
@@ -5619,6 +6703,30 @@
       </c>
       <c r="AJ47" t="n">
         <v>1234.08</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="48">
@@ -5688,25 +6796,25 @@
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="X48" t="n">
-        <v>0.74</v>
+        <v>0.08</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.82</v>
+        <v>0.12</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.87</v>
+        <v>0.22</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="AC48" t="n">
         <v>5</v>
@@ -5731,6 +6839,30 @@
       </c>
       <c r="AJ48" t="n">
         <v>1234.08</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="49">
@@ -5800,25 +6932,25 @@
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>2.95</v>
+        <v>0.14</v>
       </c>
       <c r="W49" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="X49" t="n">
-        <v>2.81</v>
+        <v>0.05</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.93</v>
+        <v>0.08</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.98</v>
+        <v>0.1</v>
       </c>
       <c r="AA49" t="n">
-        <v>3.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB49" t="n">
-        <v>3.03</v>
+        <v>0.33</v>
       </c>
       <c r="AC49" t="n">
         <v>5</v>
@@ -5843,6 +6975,30 @@
       </c>
       <c r="AJ49" t="n">
         <v>984.4299999999999</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5912,25 +7068,25 @@
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>2.87</v>
+        <v>0.13</v>
       </c>
       <c r="W50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X50" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X50" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Y50" t="n">
-        <v>2.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.84</v>
+        <v>0.09</v>
       </c>
       <c r="AA50" t="n">
-        <v>2.91</v>
+        <v>0.12</v>
       </c>
       <c r="AB50" t="n">
-        <v>2.96</v>
+        <v>0.31</v>
       </c>
       <c r="AC50" t="n">
         <v>5</v>
@@ -5955,6 +7111,30 @@
       </c>
       <c r="AJ50" t="n">
         <v>984.4299999999999</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6024,25 +7204,25 @@
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>2.87</v>
+        <v>0.15</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="X51" t="n">
-        <v>2.72</v>
+        <v>0.08</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.81</v>
+        <v>0.09</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.91</v>
+        <v>0.09</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.93</v>
+        <v>0.12</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.96</v>
+        <v>0.35</v>
       </c>
       <c r="AC51" t="n">
         <v>5</v>
@@ -6067,6 +7247,30 @@
       </c>
       <c r="AJ51" t="n">
         <v>984.4299999999999</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="52">
@@ -6136,25 +7340,25 @@
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>2.91</v>
+        <v>0.15</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="X52" t="n">
-        <v>2.85</v>
+        <v>0.09</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.88</v>
+        <v>0.1</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.88</v>
+        <v>0.11</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.94</v>
+        <v>0.14</v>
       </c>
       <c r="AB52" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AC52" t="n">
         <v>5</v>
@@ -6179,6 +7383,30 @@
       </c>
       <c r="AJ52" t="n">
         <v>984.4299999999999</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="53">
@@ -6248,25 +7476,25 @@
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>2.92</v>
+        <v>0.15</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X53" t="n">
-        <v>2.82</v>
+        <v>0.08</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.91</v>
+        <v>0.08</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.94</v>
+        <v>0.12</v>
       </c>
       <c r="AA53" t="n">
-        <v>2.95</v>
+        <v>0.14</v>
       </c>
       <c r="AB53" t="n">
-        <v>3.01</v>
+        <v>0.33</v>
       </c>
       <c r="AC53" t="n">
         <v>5</v>
@@ -6291,6 +7519,30 @@
       </c>
       <c r="AJ53" t="n">
         <v>984.4299999999999</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="54">
@@ -6360,25 +7612,25 @@
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>8.710000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="W54" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="X54" t="n">
-        <v>8.470000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.49</v>
+        <v>0.11</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.59</v>
+        <v>0.14</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.9</v>
+        <v>0.19</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.109999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="AC54" t="n">
         <v>5</v>
@@ -6403,6 +7655,30 @@
       </c>
       <c r="AJ54" t="n">
         <v>1065.36</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6472,25 +7748,25 @@
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>8.539999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="W55" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="X55" t="n">
-        <v>8.33</v>
+        <v>0.09</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.460000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.51</v>
+        <v>0.12</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.69</v>
+        <v>0.15</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.710000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AC55" t="n">
         <v>5</v>
@@ -6515,6 +7791,30 @@
       </c>
       <c r="AJ55" t="n">
         <v>1061.01</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6584,25 +7884,25 @@
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>8.43</v>
+        <v>0.14</v>
       </c>
       <c r="W56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AA56" t="n">
         <v>0.19</v>
       </c>
-      <c r="X56" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>8.57</v>
-      </c>
       <c r="AB56" t="n">
-        <v>8.65</v>
+        <v>0.24</v>
       </c>
       <c r="AC56" t="n">
         <v>5</v>
@@ -6627,6 +7927,30 @@
       </c>
       <c r="AJ56" t="n">
         <v>1061.01</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6696,25 +8020,25 @@
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>8.35</v>
+        <v>0.14</v>
       </c>
       <c r="W57" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="X57" t="n">
-        <v>7.94</v>
+        <v>0.08</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.16</v>
+        <v>0.08</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.359999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.550000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.73</v>
+        <v>0.21</v>
       </c>
       <c r="AC57" t="n">
         <v>5</v>
@@ -6739,6 +8063,30 @@
       </c>
       <c r="AJ57" t="n">
         <v>1061.01</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6808,25 +8156,25 @@
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>8.48</v>
+        <v>0.13</v>
       </c>
       <c r="W58" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="X58" t="n">
-        <v>8.41</v>
+        <v>0.09</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.42</v>
+        <v>0.09</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.44</v>
+        <v>0.12</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.539999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.59</v>
+        <v>0.18</v>
       </c>
       <c r="AC58" t="n">
         <v>5</v>
@@ -6851,6 +8199,30 @@
       </c>
       <c r="AJ58" t="n">
         <v>1061.01</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6920,25 +8292,25 @@
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="X59" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="AC59" t="n">
         <v>5</v>
@@ -6963,6 +8335,30 @@
       </c>
       <c r="AJ59" t="n">
         <v>642.6</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="60">
@@ -7032,25 +8428,25 @@
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="X60" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="AC60" t="n">
         <v>5</v>
@@ -7075,6 +8471,30 @@
       </c>
       <c r="AJ60" t="n">
         <v>624.59</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
@@ -7144,25 +8564,25 @@
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="W61" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="X61" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AC61" t="n">
         <v>5</v>
@@ -7187,6 +8607,30 @@
       </c>
       <c r="AJ61" t="n">
         <v>611.79</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="62">
@@ -7256,25 +8700,25 @@
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="X62" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="AC62" t="n">
         <v>5</v>
@@ -7299,6 +8743,30 @@
       </c>
       <c r="AJ62" t="n">
         <v>625.5599999999999</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="63">
@@ -7368,25 +8836,25 @@
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X63" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="AC63" t="n">
         <v>5</v>
@@ -7411,6 +8879,30 @@
       </c>
       <c r="AJ63" t="n">
         <v>613.3</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="64">
@@ -7480,25 +8972,25 @@
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="W64" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y64" t="n">
         <v>0.36</v>
       </c>
-      <c r="X64" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0.49</v>
-      </c>
       <c r="Z64" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="AB64" t="n">
-        <v>1.25</v>
+        <v>0.54</v>
       </c>
       <c r="AC64" t="n">
         <v>5</v>
@@ -7523,6 +9015,30 @@
       </c>
       <c r="AJ64" t="n">
         <v>740.54</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="65">
@@ -7592,25 +9108,25 @@
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="W65" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="X65" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="AB65" t="n">
-        <v>1.29</v>
+        <v>0.53</v>
       </c>
       <c r="AC65" t="n">
         <v>5</v>
@@ -7635,6 +9151,30 @@
       </c>
       <c r="AJ65" t="n">
         <v>740.54</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="66">
@@ -7704,25 +9244,25 @@
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="W66" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="X66" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="AB66" t="n">
-        <v>1.26</v>
+        <v>0.64</v>
       </c>
       <c r="AC66" t="n">
         <v>5</v>
@@ -7747,6 +9287,30 @@
       </c>
       <c r="AJ66" t="n">
         <v>728.5599999999999</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
@@ -7816,25 +9380,25 @@
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="W67" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="X67" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.1</v>
+        <v>0.61</v>
       </c>
       <c r="AC67" t="n">
         <v>5</v>
@@ -7859,6 +9423,30 @@
       </c>
       <c r="AJ67" t="n">
         <v>735.4</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="68">
@@ -7928,25 +9516,25 @@
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>0.73</v>
+        <v>0.43</v>
       </c>
       <c r="W68" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="X68" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AB68" t="n">
         <v>0.5</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>1.27</v>
       </c>
       <c r="AC68" t="n">
         <v>5</v>
@@ -7971,6 +9559,30 @@
       </c>
       <c r="AJ68" t="n">
         <v>737.27</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="69">
@@ -8040,25 +9652,25 @@
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="W69" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="X69" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB69" t="n">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="AC69" t="n">
         <v>5</v>
@@ -8083,6 +9695,30 @@
       </c>
       <c r="AJ69" t="n">
         <v>769.42</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="70">
@@ -8152,25 +9788,25 @@
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="W70" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X70" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y70" t="n">
         <v>0.66</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AB70" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AC70" t="n">
         <v>5</v>
@@ -8195,6 +9831,30 @@
       </c>
       <c r="AJ70" t="n">
         <v>776.53</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="71">
@@ -8264,25 +9924,25 @@
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W71" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="X71" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AB71" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="AC71" t="n">
         <v>5</v>
@@ -8307,6 +9967,30 @@
       </c>
       <c r="AJ71" t="n">
         <v>773.78</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
@@ -8376,25 +10060,25 @@
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="W72" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="X72" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Z72" t="n">
         <v>0.68</v>
       </c>
-      <c r="Y72" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0.88</v>
-      </c>
       <c r="AA72" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="AB72" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="AC72" t="n">
         <v>5</v>
@@ -8419,6 +10103,30 @@
       </c>
       <c r="AJ72" t="n">
         <v>742.46</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="73">
@@ -8488,25 +10196,25 @@
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="W73" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X73" t="n">
         <v>0.58</v>
       </c>
-      <c r="X73" t="n">
-        <v>0.64</v>
-      </c>
       <c r="Y73" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="Z73" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA73" t="n">
         <v>0.84</v>
       </c>
-      <c r="AA73" t="n">
-        <v>0.91</v>
-      </c>
       <c r="AB73" t="n">
-        <v>2.09</v>
+        <v>1.61</v>
       </c>
       <c r="AC73" t="n">
         <v>5</v>
@@ -8531,6 +10239,30 @@
       </c>
       <c r="AJ73" t="n">
         <v>758.4299999999999</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="74">
@@ -8600,25 +10332,25 @@
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>3.03</v>
+        <v>1.4</v>
       </c>
       <c r="W74" t="n">
-        <v>3.54</v>
+        <v>1.1</v>
       </c>
       <c r="X74" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.16</v>
+        <v>0.93</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.3</v>
+        <v>0.96</v>
       </c>
       <c r="AA74" t="n">
-        <v>2.39</v>
+        <v>0.96</v>
       </c>
       <c r="AB74" t="n">
-        <v>9.289999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="AC74" t="n">
         <v>5</v>
@@ -8643,6 +10375,30 @@
       </c>
       <c r="AJ74" t="n">
         <v>764.35</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="75">
@@ -8712,25 +10468,25 @@
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="W75" t="n">
-        <v>0.52</v>
+        <v>1.1</v>
       </c>
       <c r="X75" t="n">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.12</v>
+        <v>0.79</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AB75" t="n">
-        <v>2.25</v>
+        <v>3.23</v>
       </c>
       <c r="AC75" t="n">
         <v>5</v>
@@ -8755,6 +10511,30 @@
       </c>
       <c r="AJ75" t="n">
         <v>763.8</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="76">
@@ -8824,25 +10604,25 @@
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
-        <v>0.65</v>
+        <v>1.18</v>
       </c>
       <c r="X76" t="n">
-        <v>0.91</v>
+        <v>0.62</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.02</v>
+        <v>0.68</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>1.29</v>
+        <v>0.96</v>
       </c>
       <c r="AB76" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="AC76" t="n">
         <v>5</v>
@@ -8867,6 +10647,30 @@
       </c>
       <c r="AJ76" t="n">
         <v>768.84</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="77">
@@ -8936,25 +10740,25 @@
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="W77" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="X77" t="n">
-        <v>1.04</v>
+        <v>0.54</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AA77" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="AB77" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="AC77" t="n">
         <v>5</v>
@@ -8979,6 +10783,30 @@
       </c>
       <c r="AJ77" t="n">
         <v>780.1</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="78">
@@ -9048,25 +10876,25 @@
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="W78" t="n">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="X78" t="n">
-        <v>1.06</v>
+        <v>0.54</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.11</v>
+        <v>0.86</v>
       </c>
       <c r="AA78" t="n">
-        <v>1.3</v>
+        <v>0.97</v>
       </c>
       <c r="AB78" t="n">
-        <v>2.54</v>
+        <v>2.77</v>
       </c>
       <c r="AC78" t="n">
         <v>5</v>
@@ -9091,6 +10919,30 @@
       </c>
       <c r="AJ78" t="n">
         <v>773.54</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="79">
@@ -9160,25 +11012,25 @@
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>3.28</v>
+        <v>2.13</v>
       </c>
       <c r="W79" t="n">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="X79" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="Y79" t="n">
-        <v>2.78</v>
+        <v>1.56</v>
       </c>
       <c r="Z79" t="n">
-        <v>3.11</v>
+        <v>1.59</v>
       </c>
       <c r="AA79" t="n">
-        <v>3.36</v>
+        <v>2.62</v>
       </c>
       <c r="AB79" t="n">
-        <v>4.43</v>
+        <v>3.44</v>
       </c>
       <c r="AC79" t="n">
         <v>5</v>
@@ -9203,6 +11055,30 @@
       </c>
       <c r="AJ79" t="n">
         <v>908.23</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80">
@@ -9272,25 +11148,25 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>3.24</v>
+        <v>2.1</v>
       </c>
       <c r="W80" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="X80" t="n">
-        <v>2.58</v>
+        <v>1.26</v>
       </c>
       <c r="Y80" t="n">
-        <v>2.84</v>
+        <v>1.39</v>
       </c>
       <c r="Z80" t="n">
-        <v>3.17</v>
+        <v>1.62</v>
       </c>
       <c r="AA80" t="n">
-        <v>3.47</v>
+        <v>2.85</v>
       </c>
       <c r="AB80" t="n">
-        <v>4.13</v>
+        <v>3.37</v>
       </c>
       <c r="AC80" t="n">
         <v>5</v>
@@ -9315,6 +11191,30 @@
       </c>
       <c r="AJ80" t="n">
         <v>867.51</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="81">
@@ -9384,25 +11284,25 @@
         <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
       <c r="W81" t="n">
-        <v>0.58</v>
+        <v>0.96</v>
       </c>
       <c r="X81" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
       <c r="Y81" t="n">
-        <v>2.69</v>
+        <v>1.39</v>
       </c>
       <c r="Z81" t="n">
-        <v>3.12</v>
+        <v>1.61</v>
       </c>
       <c r="AA81" t="n">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="AB81" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="AC81" t="n">
         <v>5</v>
@@ -9427,6 +11327,30 @@
       </c>
       <c r="AJ81" t="n">
         <v>863.4299999999999</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="82">
@@ -9496,25 +11420,25 @@
         <v>5</v>
       </c>
       <c r="V82" t="n">
-        <v>3.27</v>
+        <v>2.11</v>
       </c>
       <c r="W82" t="n">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="X82" t="n">
-        <v>2.69</v>
+        <v>1.26</v>
       </c>
       <c r="Y82" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="Z82" t="n">
-        <v>3.29</v>
+        <v>1.59</v>
       </c>
       <c r="AA82" t="n">
-        <v>3.46</v>
+        <v>2.67</v>
       </c>
       <c r="AB82" t="n">
-        <v>4.14</v>
+        <v>3.63</v>
       </c>
       <c r="AC82" t="n">
         <v>5</v>
@@ -9539,6 +11463,30 @@
       </c>
       <c r="AJ82" t="n">
         <v>855.42</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
@@ -9608,25 +11556,25 @@
         <v>5</v>
       </c>
       <c r="V83" t="n">
-        <v>3.26</v>
+        <v>2.25</v>
       </c>
       <c r="W83" t="n">
-        <v>0.61</v>
+        <v>0.99</v>
       </c>
       <c r="X83" t="n">
-        <v>2.73</v>
+        <v>1.45</v>
       </c>
       <c r="Y83" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="Z83" t="n">
-        <v>3.16</v>
+        <v>1.75</v>
       </c>
       <c r="AA83" t="n">
-        <v>3.21</v>
+        <v>2.68</v>
       </c>
       <c r="AB83" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AC83" t="n">
         <v>5</v>
@@ -9651,6 +11599,30 @@
       </c>
       <c r="AJ83" t="n">
         <v>857.17</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="84">
@@ -9720,25 +11692,25 @@
         <v>5</v>
       </c>
       <c r="V84" t="n">
-        <v>8.27</v>
+        <v>8.23</v>
       </c>
       <c r="W84" t="n">
-        <v>5.61</v>
+        <v>5.91</v>
       </c>
       <c r="X84" t="n">
-        <v>2.43</v>
+        <v>1.78</v>
       </c>
       <c r="Y84" t="n">
-        <v>3.74</v>
+        <v>2.05</v>
       </c>
       <c r="Z84" t="n">
-        <v>7.78</v>
+        <v>10.56</v>
       </c>
       <c r="AA84" t="n">
-        <v>11.22</v>
+        <v>12.55</v>
       </c>
       <c r="AB84" t="n">
-        <v>16.17</v>
+        <v>14.2</v>
       </c>
       <c r="AC84" t="n">
         <v>5</v>
@@ -9763,6 +11735,30 @@
       </c>
       <c r="AJ84" t="n">
         <v>938.4299999999999</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85">
@@ -9832,25 +11828,25 @@
         <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>8.19</v>
+        <v>8.92</v>
       </c>
       <c r="W85" t="n">
-        <v>5.43</v>
+        <v>6.74</v>
       </c>
       <c r="X85" t="n">
-        <v>2.66</v>
+        <v>1.71</v>
       </c>
       <c r="Y85" t="n">
-        <v>3.69</v>
+        <v>1.96</v>
       </c>
       <c r="Z85" t="n">
-        <v>7.51</v>
+        <v>10.76</v>
       </c>
       <c r="AA85" t="n">
-        <v>11.38</v>
+        <v>14.09</v>
       </c>
       <c r="AB85" t="n">
-        <v>15.69</v>
+        <v>16.07</v>
       </c>
       <c r="AC85" t="n">
         <v>5</v>
@@ -9875,6 +11871,30 @@
       </c>
       <c r="AJ85" t="n">
         <v>942.25</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="86">
@@ -9944,25 +11964,25 @@
         <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>8.210000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="W86" t="n">
-        <v>5.39</v>
+        <v>5.95</v>
       </c>
       <c r="X86" t="n">
-        <v>2.73</v>
+        <v>1.77</v>
       </c>
       <c r="Y86" t="n">
-        <v>3.64</v>
+        <v>2</v>
       </c>
       <c r="Z86" t="n">
-        <v>7.73</v>
+        <v>10.73</v>
       </c>
       <c r="AA86" t="n">
-        <v>11.31</v>
+        <v>12.79</v>
       </c>
       <c r="AB86" t="n">
-        <v>15.67</v>
+        <v>14.05</v>
       </c>
       <c r="AC86" t="n">
         <v>5</v>
@@ -9987,6 +12007,30 @@
       </c>
       <c r="AJ86" t="n">
         <v>937.66</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="87">
@@ -10056,25 +12100,25 @@
         <v>5</v>
       </c>
       <c r="V87" t="n">
-        <v>8.130000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="W87" t="n">
-        <v>5.53</v>
+        <v>5.87</v>
       </c>
       <c r="X87" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="Y87" t="n">
-        <v>3.68</v>
+        <v>2.02</v>
       </c>
       <c r="Z87" t="n">
-        <v>7.5</v>
+        <v>10.58</v>
       </c>
       <c r="AA87" t="n">
-        <v>11.31</v>
+        <v>12.59</v>
       </c>
       <c r="AB87" t="n">
-        <v>15.79</v>
+        <v>14.22</v>
       </c>
       <c r="AC87" t="n">
         <v>5</v>
@@ -10099,6 +12143,30 @@
       </c>
       <c r="AJ87" t="n">
         <v>940.7</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="88">
@@ -10168,25 +12236,25 @@
         <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>8.300000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="W88" t="n">
-        <v>5.46</v>
+        <v>6.85</v>
       </c>
       <c r="X88" t="n">
-        <v>2.74</v>
+        <v>1.88</v>
       </c>
       <c r="Y88" t="n">
-        <v>3.97</v>
+        <v>1.89</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.51</v>
+        <v>9.17</v>
       </c>
       <c r="AA88" t="n">
-        <v>11.24</v>
+        <v>14.06</v>
       </c>
       <c r="AB88" t="n">
-        <v>16.06</v>
+        <v>16.81</v>
       </c>
       <c r="AC88" t="n">
         <v>5</v>
@@ -10211,6 +12279,30 @@
       </c>
       <c r="AJ88" t="n">
         <v>931.15</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="89">
@@ -10280,25 +12372,25 @@
         <v>5</v>
       </c>
       <c r="V89" t="n">
-        <v>11.7</v>
+        <v>11.28</v>
       </c>
       <c r="W89" t="n">
-        <v>4.78</v>
+        <v>9.85</v>
       </c>
       <c r="X89" t="n">
-        <v>6.79</v>
+        <v>2.97</v>
       </c>
       <c r="Y89" t="n">
-        <v>7.28</v>
+        <v>7.04</v>
       </c>
       <c r="Z89" t="n">
-        <v>11.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AA89" t="n">
-        <v>16.45</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AB89" t="n">
-        <v>16.7</v>
+        <v>28.31</v>
       </c>
       <c r="AC89" t="n">
         <v>5</v>
@@ -10323,6 +12415,30 @@
       </c>
       <c r="AJ89" t="n">
         <v>996.6900000000001</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="90">
@@ -10392,25 +12508,25 @@
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>11.71</v>
+        <v>11.16</v>
       </c>
       <c r="W90" t="n">
-        <v>4.91</v>
+        <v>9.85</v>
       </c>
       <c r="X90" t="n">
-        <v>6.91</v>
+        <v>2.94</v>
       </c>
       <c r="Y90" t="n">
-        <v>7.03</v>
+        <v>7.11</v>
       </c>
       <c r="Z90" t="n">
-        <v>11.08</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AA90" t="n">
-        <v>16.58</v>
+        <v>9.32</v>
       </c>
       <c r="AB90" t="n">
-        <v>16.93</v>
+        <v>28.24</v>
       </c>
       <c r="AC90" t="n">
         <v>5</v>
@@ -10435,6 +12551,30 @@
       </c>
       <c r="AJ90" t="n">
         <v>998.83</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="91">
@@ -10504,25 +12644,25 @@
         <v>5</v>
       </c>
       <c r="V91" t="n">
-        <v>11.71</v>
+        <v>11.17</v>
       </c>
       <c r="W91" t="n">
-        <v>5.07</v>
+        <v>9.91</v>
       </c>
       <c r="X91" t="n">
-        <v>6.73</v>
+        <v>3.05</v>
       </c>
       <c r="Y91" t="n">
-        <v>6.79</v>
+        <v>7.17</v>
       </c>
       <c r="Z91" t="n">
-        <v>11.3</v>
+        <v>7.97</v>
       </c>
       <c r="AA91" t="n">
-        <v>16.63</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AB91" t="n">
-        <v>17.12</v>
+        <v>28.41</v>
       </c>
       <c r="AC91" t="n">
         <v>5</v>
@@ -10547,6 +12687,30 @@
       </c>
       <c r="AJ91" t="n">
         <v>976.28</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="92">
@@ -10616,25 +12780,25 @@
         <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>11.65</v>
+        <v>11.35</v>
       </c>
       <c r="W92" t="n">
-        <v>4.86</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="X92" t="n">
-        <v>6.76</v>
+        <v>4.04</v>
       </c>
       <c r="Y92" t="n">
-        <v>7.03</v>
+        <v>7.24</v>
       </c>
       <c r="Z92" t="n">
-        <v>11.26</v>
+        <v>8.1</v>
       </c>
       <c r="AA92" t="n">
-        <v>16.34</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB92" t="n">
-        <v>16.85</v>
+        <v>28.05</v>
       </c>
       <c r="AC92" t="n">
         <v>5</v>
@@ -10659,6 +12823,30 @@
       </c>
       <c r="AJ92" t="n">
         <v>969.7</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="93">
@@ -10728,25 +12916,25 @@
         <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>11.68</v>
+        <v>11.09</v>
       </c>
       <c r="W93" t="n">
-        <v>5.04</v>
+        <v>10.01</v>
       </c>
       <c r="X93" t="n">
-        <v>6.75</v>
+        <v>4.02</v>
       </c>
       <c r="Y93" t="n">
-        <v>6.9</v>
+        <v>5.58</v>
       </c>
       <c r="Z93" t="n">
-        <v>10.98</v>
+        <v>8.1</v>
       </c>
       <c r="AA93" t="n">
-        <v>16.71</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AB93" t="n">
-        <v>17.03</v>
+        <v>28.63</v>
       </c>
       <c r="AC93" t="n">
         <v>5</v>
@@ -10771,6 +12959,30 @@
       </c>
       <c r="AJ93" t="n">
         <v>976.3</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="94">
@@ -10840,25 +13052,25 @@
         <v>5</v>
       </c>
       <c r="V94" t="n">
-        <v>15.83</v>
+        <v>13.69</v>
       </c>
       <c r="W94" t="n">
-        <v>6.19</v>
+        <v>6.27</v>
       </c>
       <c r="X94" t="n">
-        <v>8.640000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="Y94" t="n">
-        <v>10.56</v>
+        <v>7.65</v>
       </c>
       <c r="Z94" t="n">
-        <v>16.43</v>
+        <v>16.19</v>
       </c>
       <c r="AA94" t="n">
-        <v>20.5</v>
+        <v>18.99</v>
       </c>
       <c r="AB94" t="n">
-        <v>23</v>
+        <v>19.32</v>
       </c>
       <c r="AC94" t="n">
         <v>5</v>
@@ -10883,6 +13095,30 @@
       </c>
       <c r="AJ94" t="n">
         <v>1119.26</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="95">
@@ -10952,25 +13188,25 @@
         <v>5</v>
       </c>
       <c r="V95" t="n">
-        <v>15.76</v>
+        <v>13.89</v>
       </c>
       <c r="W95" t="n">
-        <v>6.22</v>
+        <v>6.79</v>
       </c>
       <c r="X95" t="n">
-        <v>8.52</v>
+        <v>6.29</v>
       </c>
       <c r="Y95" t="n">
-        <v>10.54</v>
+        <v>7.18</v>
       </c>
       <c r="Z95" t="n">
-        <v>16.32</v>
+        <v>16.55</v>
       </c>
       <c r="AA95" t="n">
-        <v>20.28</v>
+        <v>17.81</v>
       </c>
       <c r="AB95" t="n">
-        <v>23.13</v>
+        <v>21.61</v>
       </c>
       <c r="AC95" t="n">
         <v>5</v>
@@ -10995,6 +13231,30 @@
       </c>
       <c r="AJ95" t="n">
         <v>1130.4</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="96">
@@ -11064,25 +13324,25 @@
         <v>5</v>
       </c>
       <c r="V96" t="n">
-        <v>23.28</v>
+        <v>14.38</v>
       </c>
       <c r="W96" t="n">
-        <v>20.49</v>
+        <v>5.8</v>
       </c>
       <c r="X96" t="n">
-        <v>9.4</v>
+        <v>7.77</v>
       </c>
       <c r="Y96" t="n">
-        <v>10.98</v>
+        <v>8.48</v>
       </c>
       <c r="Z96" t="n">
-        <v>16.57</v>
+        <v>17.25</v>
       </c>
       <c r="AA96" t="n">
-        <v>20.36</v>
+        <v>18.25</v>
       </c>
       <c r="AB96" t="n">
-        <v>59.09</v>
+        <v>20.14</v>
       </c>
       <c r="AC96" t="n">
         <v>5</v>
@@ -11107,6 +13367,30 @@
       </c>
       <c r="AJ96" t="n">
         <v>1120.39</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="97">
@@ -11176,25 +13460,25 @@
         <v>5</v>
       </c>
       <c r="V97" t="n">
-        <v>15.92</v>
+        <v>13.57</v>
       </c>
       <c r="W97" t="n">
-        <v>6.17</v>
+        <v>5.41</v>
       </c>
       <c r="X97" t="n">
-        <v>8.4</v>
+        <v>7.56</v>
       </c>
       <c r="Y97" t="n">
-        <v>10.99</v>
+        <v>7.89</v>
       </c>
       <c r="Z97" t="n">
-        <v>16.85</v>
+        <v>16.38</v>
       </c>
       <c r="AA97" t="n">
-        <v>20.21</v>
+        <v>17.16</v>
       </c>
       <c r="AB97" t="n">
-        <v>23.13</v>
+        <v>18.85</v>
       </c>
       <c r="AC97" t="n">
         <v>5</v>
@@ -11219,6 +13503,30 @@
       </c>
       <c r="AJ97" t="n">
         <v>1114.51</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="98">
@@ -11288,25 +13596,25 @@
         <v>5</v>
       </c>
       <c r="V98" t="n">
-        <v>15.85</v>
+        <v>13.17</v>
       </c>
       <c r="W98" t="n">
-        <v>6.44</v>
+        <v>5.88</v>
       </c>
       <c r="X98" t="n">
-        <v>8.06</v>
+        <v>6.36</v>
       </c>
       <c r="Y98" t="n">
-        <v>10.39</v>
+        <v>7.16</v>
       </c>
       <c r="Z98" t="n">
-        <v>17.19</v>
+        <v>16.47</v>
       </c>
       <c r="AA98" t="n">
-        <v>20.58</v>
+        <v>17.66</v>
       </c>
       <c r="AB98" t="n">
-        <v>23.01</v>
+        <v>18.17</v>
       </c>
       <c r="AC98" t="n">
         <v>5</v>
@@ -11331,6 +13639,30 @@
       </c>
       <c r="AJ98" t="n">
         <v>1142.26</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="99">
@@ -11400,25 +13732,25 @@
         <v>5</v>
       </c>
       <c r="V99" t="n">
-        <v>26.34</v>
+        <v>21.9</v>
       </c>
       <c r="W99" t="n">
-        <v>11.26</v>
+        <v>11.38</v>
       </c>
       <c r="X99" t="n">
-        <v>10.3</v>
+        <v>7.44</v>
       </c>
       <c r="Y99" t="n">
-        <v>18.57</v>
+        <v>11.65</v>
       </c>
       <c r="Z99" t="n">
-        <v>34.02</v>
+        <v>30.09</v>
       </c>
       <c r="AA99" t="n">
-        <v>34.1</v>
+        <v>30.1</v>
       </c>
       <c r="AB99" t="n">
-        <v>34.71</v>
+        <v>30.23</v>
       </c>
       <c r="AC99" t="n">
         <v>5</v>
@@ -11443,6 +13775,30 @@
       </c>
       <c r="AJ99" t="n">
         <v>1035.19</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="100">
@@ -11512,25 +13868,25 @@
         <v>5</v>
       </c>
       <c r="V100" t="n">
-        <v>26.41</v>
+        <v>21.82</v>
       </c>
       <c r="W100" t="n">
-        <v>11.56</v>
+        <v>11.42</v>
       </c>
       <c r="X100" t="n">
-        <v>9.74</v>
+        <v>7.38</v>
       </c>
       <c r="Y100" t="n">
-        <v>18.78</v>
+        <v>11.42</v>
       </c>
       <c r="Z100" t="n">
-        <v>33.74</v>
+        <v>30.09</v>
       </c>
       <c r="AA100" t="n">
-        <v>34.39</v>
+        <v>30.1</v>
       </c>
       <c r="AB100" t="n">
-        <v>35.42</v>
+        <v>30.1</v>
       </c>
       <c r="AC100" t="n">
         <v>5</v>
@@ -11555,6 +13911,30 @@
       </c>
       <c r="AJ100" t="n">
         <v>1058.5</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="101">
@@ -11624,25 +14004,25 @@
         <v>5</v>
       </c>
       <c r="V101" t="n">
-        <v>26.41</v>
+        <v>22.09</v>
       </c>
       <c r="W101" t="n">
-        <v>11.13</v>
+        <v>11.02</v>
       </c>
       <c r="X101" t="n">
-        <v>10.27</v>
+        <v>8.58</v>
       </c>
       <c r="Y101" t="n">
-        <v>19.16</v>
+        <v>11.57</v>
       </c>
       <c r="Z101" t="n">
-        <v>33.65</v>
+        <v>30.09</v>
       </c>
       <c r="AA101" t="n">
-        <v>34.37</v>
+        <v>30.11</v>
       </c>
       <c r="AB101" t="n">
-        <v>34.58</v>
+        <v>30.11</v>
       </c>
       <c r="AC101" t="n">
         <v>5</v>
@@ -11667,6 +14047,30 @@
       </c>
       <c r="AJ101" t="n">
         <v>1064.16</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="102">
@@ -11736,25 +14140,25 @@
         <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>26.43</v>
+        <v>22.13</v>
       </c>
       <c r="W102" t="n">
-        <v>11.41</v>
+        <v>10.01</v>
       </c>
       <c r="X102" t="n">
-        <v>10.22</v>
+        <v>10.34</v>
       </c>
       <c r="Y102" t="n">
-        <v>18.47</v>
+        <v>12.11</v>
       </c>
       <c r="Z102" t="n">
-        <v>34.22</v>
+        <v>28</v>
       </c>
       <c r="AA102" t="n">
-        <v>34.5</v>
+        <v>30.1</v>
       </c>
       <c r="AB102" t="n">
-        <v>34.76</v>
+        <v>30.1</v>
       </c>
       <c r="AC102" t="n">
         <v>5</v>
@@ -11779,6 +14183,30 @@
       </c>
       <c r="AJ102" t="n">
         <v>1060.32</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="103">
@@ -11848,25 +14276,25 @@
         <v>5</v>
       </c>
       <c r="V103" t="n">
-        <v>26.33</v>
+        <v>21.89</v>
       </c>
       <c r="W103" t="n">
-        <v>11.12</v>
+        <v>10.34</v>
       </c>
       <c r="X103" t="n">
-        <v>10.02</v>
+        <v>9.75</v>
       </c>
       <c r="Y103" t="n">
-        <v>19.38</v>
+        <v>11.5</v>
       </c>
       <c r="Z103" t="n">
-        <v>34.03</v>
+        <v>28.03</v>
       </c>
       <c r="AA103" t="n">
-        <v>34.08</v>
+        <v>30.09</v>
       </c>
       <c r="AB103" t="n">
-        <v>34.12</v>
+        <v>30.1</v>
       </c>
       <c r="AC103" t="n">
         <v>5</v>
@@ -11891,6 +14319,30 @@
       </c>
       <c r="AJ103" t="n">
         <v>1034.61</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -11936,49 +14388,49 @@
         <v>5</v>
       </c>
       <c r="N104" t="n">
-        <v>7200.27</v>
+        <v>2880.27</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03</v>
+        <v>2414.94</v>
       </c>
       <c r="P104" t="n">
-        <v>7200.24</v>
+        <v>1800.24</v>
       </c>
       <c r="Q104" t="n">
+        <v>1800.25</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1800.29</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1800.3</v>
+      </c>
+      <c r="T104" t="n">
         <v>7200.25</v>
       </c>
-      <c r="R104" t="n">
-        <v>7200.25</v>
-      </c>
-      <c r="S104" t="n">
-        <v>7200.29</v>
-      </c>
-      <c r="T104" t="n">
-        <v>7200.3</v>
-      </c>
       <c r="U104" t="n">
         <v>5</v>
       </c>
       <c r="V104" t="n">
-        <v>52.07</v>
+        <v>25.06</v>
       </c>
       <c r="W104" t="n">
-        <v>10.44</v>
+        <v>7.72</v>
       </c>
       <c r="X104" t="n">
-        <v>34.19</v>
+        <v>12.6</v>
       </c>
       <c r="Y104" t="n">
-        <v>52.43</v>
+        <v>22.43</v>
       </c>
       <c r="Z104" t="n">
-        <v>55.05</v>
+        <v>30.09</v>
       </c>
       <c r="AA104" t="n">
-        <v>58.34</v>
+        <v>30.09</v>
       </c>
       <c r="AB104" t="n">
-        <v>60.33</v>
+        <v>30.1</v>
       </c>
       <c r="AC104" t="n">
         <v>5</v>
@@ -12003,6 +14455,30 @@
       </c>
       <c r="AJ104" t="n">
         <v>1074.59</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="105">
@@ -12048,49 +14524,49 @@
         <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>7200.33</v>
+        <v>1800.33</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
       </c>
       <c r="P105" t="n">
-        <v>7200.23</v>
+        <v>1800.23</v>
       </c>
       <c r="Q105" t="n">
-        <v>7200.25</v>
+        <v>1800.25</v>
       </c>
       <c r="R105" t="n">
-        <v>7200.32</v>
+        <v>1800.32</v>
       </c>
       <c r="S105" t="n">
-        <v>7200.38</v>
+        <v>1800.38</v>
       </c>
       <c r="T105" t="n">
-        <v>7200.46</v>
+        <v>1800.46</v>
       </c>
       <c r="U105" t="n">
         <v>5</v>
       </c>
       <c r="V105" t="n">
-        <v>61.06</v>
+        <v>25.13</v>
       </c>
       <c r="W105" t="n">
-        <v>21.24</v>
+        <v>7.57</v>
       </c>
       <c r="X105" t="n">
-        <v>34.96</v>
+        <v>12.97</v>
       </c>
       <c r="Y105" t="n">
-        <v>55.04</v>
+        <v>22.42</v>
       </c>
       <c r="Z105" t="n">
-        <v>60.6</v>
+        <v>30.09</v>
       </c>
       <c r="AA105" t="n">
-        <v>60.7</v>
+        <v>30.09</v>
       </c>
       <c r="AB105" t="n">
-        <v>94.02</v>
+        <v>30.09</v>
       </c>
       <c r="AC105" t="n">
         <v>5</v>
@@ -12115,6 +14591,30 @@
       </c>
       <c r="AJ105" t="n">
         <v>1071.99</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="106">
@@ -12160,49 +14660,49 @@
         <v>5</v>
       </c>
       <c r="N106" t="n">
-        <v>7200.34</v>
+        <v>1800.34</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
       </c>
       <c r="P106" t="n">
-        <v>7200.24</v>
+        <v>1800.24</v>
       </c>
       <c r="Q106" t="n">
-        <v>7200.25</v>
+        <v>1800.25</v>
       </c>
       <c r="R106" t="n">
-        <v>7200.37</v>
+        <v>1800.37</v>
       </c>
       <c r="S106" t="n">
-        <v>7200.37</v>
+        <v>1800.37</v>
       </c>
       <c r="T106" t="n">
-        <v>7200.48</v>
+        <v>1800.48</v>
       </c>
       <c r="U106" t="n">
         <v>5</v>
       </c>
       <c r="V106" t="n">
-        <v>78.34</v>
+        <v>25.03</v>
       </c>
       <c r="W106" t="n">
-        <v>60.31</v>
+        <v>7.79</v>
       </c>
       <c r="X106" t="n">
-        <v>37.74</v>
+        <v>12.47</v>
       </c>
       <c r="Y106" t="n">
-        <v>52.44</v>
+        <v>22.32</v>
       </c>
       <c r="Z106" t="n">
-        <v>54.68</v>
+        <v>30.09</v>
       </c>
       <c r="AA106" t="n">
-        <v>61.76</v>
+        <v>30.1</v>
       </c>
       <c r="AB106" t="n">
-        <v>185.09</v>
+        <v>30.17</v>
       </c>
       <c r="AC106" t="n">
         <v>5</v>
@@ -12227,6 +14727,30 @@
       </c>
       <c r="AJ106" t="n">
         <v>1069.03</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="107">
@@ -12272,49 +14796,49 @@
         <v>5</v>
       </c>
       <c r="N107" t="n">
-        <v>7200.28</v>
+        <v>1800.28</v>
       </c>
       <c r="O107" t="n">
         <v>0.06</v>
       </c>
       <c r="P107" t="n">
-        <v>7200.23</v>
+        <v>1800.23</v>
       </c>
       <c r="Q107" t="n">
-        <v>7200.24</v>
+        <v>1800.24</v>
       </c>
       <c r="R107" t="n">
-        <v>7200.26</v>
+        <v>1800.26</v>
       </c>
       <c r="S107" t="n">
-        <v>7200.34</v>
+        <v>1800.34</v>
       </c>
       <c r="T107" t="n">
-        <v>7200.34</v>
+        <v>1800.34</v>
       </c>
       <c r="U107" t="n">
         <v>5</v>
       </c>
       <c r="V107" t="n">
-        <v>61.55</v>
+        <v>25.1</v>
       </c>
       <c r="W107" t="n">
-        <v>24.01</v>
+        <v>7.69</v>
       </c>
       <c r="X107" t="n">
-        <v>38.74</v>
+        <v>12.65</v>
       </c>
       <c r="Y107" t="n">
-        <v>44.41</v>
+        <v>22.51</v>
       </c>
       <c r="Z107" t="n">
-        <v>56.88</v>
+        <v>30.09</v>
       </c>
       <c r="AA107" t="n">
-        <v>68.48999999999999</v>
+        <v>30.09</v>
       </c>
       <c r="AB107" t="n">
-        <v>99.25</v>
+        <v>30.13</v>
       </c>
       <c r="AC107" t="n">
         <v>5</v>
@@ -12339,6 +14863,30 @@
       </c>
       <c r="AJ107" t="n">
         <v>1077.79</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="108">
@@ -12384,49 +14932,49 @@
         <v>5</v>
       </c>
       <c r="N108" t="n">
-        <v>7200.37</v>
+        <v>1800.37</v>
       </c>
       <c r="O108" t="n">
         <v>0.17</v>
       </c>
       <c r="P108" t="n">
-        <v>7200.22</v>
+        <v>1800.22</v>
       </c>
       <c r="Q108" t="n">
-        <v>7200.3</v>
+        <v>1800.3</v>
       </c>
       <c r="R108" t="n">
-        <v>7200.31</v>
+        <v>1800.31</v>
       </c>
       <c r="S108" t="n">
-        <v>7200.34</v>
+        <v>1800.34</v>
       </c>
       <c r="T108" t="n">
-        <v>7200.67</v>
+        <v>1800.67</v>
       </c>
       <c r="U108" t="n">
         <v>5</v>
       </c>
       <c r="V108" t="n">
-        <v>52.78</v>
+        <v>25.1</v>
       </c>
       <c r="W108" t="n">
-        <v>15.73</v>
+        <v>7.58</v>
       </c>
       <c r="X108" t="n">
-        <v>34.22</v>
+        <v>12.95</v>
       </c>
       <c r="Y108" t="n">
-        <v>42.54</v>
+        <v>22.29</v>
       </c>
       <c r="Z108" t="n">
-        <v>55.15</v>
+        <v>30.09</v>
       </c>
       <c r="AA108" t="n">
-        <v>56.34</v>
+        <v>30.09</v>
       </c>
       <c r="AB108" t="n">
-        <v>75.63</v>
+        <v>30.1</v>
       </c>
       <c r="AC108" t="n">
         <v>5</v>
@@ -12451,6 +14999,30 @@
       </c>
       <c r="AJ108" t="n">
         <v>1075.13</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="109">
@@ -12496,49 +15068,49 @@
         <v>4</v>
       </c>
       <c r="N109" t="n">
-        <v>7200.3</v>
+        <v>1800.55</v>
       </c>
       <c r="O109" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="P109" t="n">
-        <v>7200.14</v>
+        <v>1800.14</v>
       </c>
       <c r="Q109" t="n">
-        <v>7200.15</v>
+        <v>1800.19</v>
       </c>
       <c r="R109" t="n">
-        <v>7200.18</v>
+        <v>1800.45</v>
       </c>
       <c r="S109" t="n">
-        <v>7200.33</v>
+        <v>1800.82</v>
       </c>
       <c r="T109" t="n">
-        <v>7200.7</v>
+        <v>1801.15</v>
       </c>
       <c r="U109" t="n">
         <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>99.44</v>
+        <v>25.35</v>
       </c>
       <c r="W109" t="n">
-        <v>53.94</v>
+        <v>6.38</v>
       </c>
       <c r="X109" t="n">
-        <v>59.08</v>
+        <v>16.62</v>
       </c>
       <c r="Y109" t="n">
-        <v>65.62</v>
+        <v>22.59</v>
       </c>
       <c r="Z109" t="n">
-        <v>80.69</v>
+        <v>27.34</v>
       </c>
       <c r="AA109" t="n">
-        <v>114.51</v>
+        <v>30.1</v>
       </c>
       <c r="AB109" t="n">
-        <v>177.32</v>
+        <v>30.1</v>
       </c>
       <c r="AC109" t="n">
         <v>4</v>
@@ -12563,6 +15135,30 @@
       </c>
       <c r="AJ109" t="n">
         <v>1164.05</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="110">
@@ -12608,49 +15204,49 @@
         <v>4</v>
       </c>
       <c r="N110" t="n">
-        <v>7200.54</v>
+        <v>1800.54</v>
       </c>
       <c r="O110" t="n">
         <v>0.25</v>
       </c>
       <c r="P110" t="n">
-        <v>7200.2</v>
+        <v>1800.2</v>
       </c>
       <c r="Q110" t="n">
-        <v>7200.47</v>
+        <v>1800.47</v>
       </c>
       <c r="R110" t="n">
-        <v>7200.58</v>
+        <v>1800.58</v>
       </c>
       <c r="S110" t="n">
-        <v>7200.66</v>
+        <v>1800.66</v>
       </c>
       <c r="T110" t="n">
-        <v>7200.81</v>
+        <v>1800.81</v>
       </c>
       <c r="U110" t="n">
         <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>84.45</v>
+        <v>24.67</v>
       </c>
       <c r="W110" t="n">
-        <v>19.31</v>
+        <v>6.64</v>
       </c>
       <c r="X110" t="n">
-        <v>66.66</v>
+        <v>16.56</v>
       </c>
       <c r="Y110" t="n">
-        <v>68.3</v>
+        <v>20.58</v>
       </c>
       <c r="Z110" t="n">
-        <v>84.79000000000001</v>
+        <v>26.01</v>
       </c>
       <c r="AA110" t="n">
-        <v>100.95</v>
+        <v>30.1</v>
       </c>
       <c r="AB110" t="n">
-        <v>101.57</v>
+        <v>30.11</v>
       </c>
       <c r="AC110" t="n">
         <v>4</v>
@@ -12675,6 +15271,30 @@
       </c>
       <c r="AJ110" t="n">
         <v>1166.04</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="111">
@@ -12720,49 +15340,49 @@
         <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>7200.41</v>
+        <v>1801.41</v>
       </c>
       <c r="O111" t="n">
-        <v>0.33</v>
+        <v>1.32</v>
       </c>
       <c r="P111" t="n">
-        <v>7200.1</v>
+        <v>1800.16</v>
       </c>
       <c r="Q111" t="n">
-        <v>7200.15</v>
+        <v>1800.5</v>
       </c>
       <c r="R111" t="n">
-        <v>7200.39</v>
+        <v>1801.19</v>
       </c>
       <c r="S111" t="n">
-        <v>7200.65</v>
+        <v>1802.1</v>
       </c>
       <c r="T111" t="n">
-        <v>7200.77</v>
+        <v>1803.1</v>
       </c>
       <c r="U111" t="n">
         <v>4</v>
       </c>
       <c r="V111" t="n">
-        <v>124.48</v>
+        <v>24.66</v>
       </c>
       <c r="W111" t="n">
-        <v>99.68000000000001</v>
+        <v>6.62</v>
       </c>
       <c r="X111" t="n">
-        <v>65.28</v>
+        <v>16.69</v>
       </c>
       <c r="Y111" t="n">
-        <v>65.83</v>
+        <v>20.47</v>
       </c>
       <c r="Z111" t="n">
-        <v>80</v>
+        <v>25.92</v>
       </c>
       <c r="AA111" t="n">
-        <v>138.65</v>
+        <v>30.11</v>
       </c>
       <c r="AB111" t="n">
-        <v>272.64</v>
+        <v>30.11</v>
       </c>
       <c r="AC111" t="n">
         <v>4</v>
@@ -12787,6 +15407,30 @@
       </c>
       <c r="AJ111" t="n">
         <v>1164.49</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="112">
@@ -12832,49 +15476,49 @@
         <v>5</v>
       </c>
       <c r="N112" t="n">
-        <v>7200.4</v>
+        <v>1800.8</v>
       </c>
       <c r="O112" t="n">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="P112" t="n">
-        <v>7200.14</v>
+        <v>1800.14</v>
       </c>
       <c r="Q112" t="n">
-        <v>7200.22</v>
+        <v>1800.26</v>
       </c>
       <c r="R112" t="n">
-        <v>7200.26</v>
+        <v>1800.6</v>
       </c>
       <c r="S112" t="n">
-        <v>7200.6</v>
+        <v>1800.8</v>
       </c>
       <c r="T112" t="n">
-        <v>7200.8</v>
+        <v>1802.22</v>
       </c>
       <c r="U112" t="n">
         <v>5</v>
       </c>
       <c r="V112" t="n">
-        <v>139.61</v>
+        <v>23.8</v>
       </c>
       <c r="W112" t="n">
-        <v>135.84</v>
+        <v>6</v>
       </c>
       <c r="X112" t="n">
-        <v>71.16</v>
+        <v>17.22</v>
       </c>
       <c r="Y112" t="n">
-        <v>78.04000000000001</v>
+        <v>19.71</v>
       </c>
       <c r="Z112" t="n">
-        <v>78.31</v>
+        <v>21.81</v>
       </c>
       <c r="AA112" t="n">
-        <v>88.15000000000001</v>
+        <v>30.11</v>
       </c>
       <c r="AB112" t="n">
-        <v>382.37</v>
+        <v>30.15</v>
       </c>
       <c r="AC112" t="n">
         <v>5</v>
@@ -12899,6 +15543,30 @@
       </c>
       <c r="AJ112" t="n">
         <v>1147.82</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="113">
@@ -12944,49 +15612,49 @@
         <v>5</v>
       </c>
       <c r="N113" t="n">
-        <v>7200.33</v>
+        <v>1800.33</v>
       </c>
       <c r="O113" t="n">
         <v>0.11</v>
       </c>
       <c r="P113" t="n">
-        <v>7200.23</v>
+        <v>1800.23</v>
       </c>
       <c r="Q113" t="n">
-        <v>7200.23</v>
+        <v>1800.23</v>
       </c>
       <c r="R113" t="n">
-        <v>7200.27</v>
+        <v>1800.27</v>
       </c>
       <c r="S113" t="n">
-        <v>7200.43</v>
+        <v>1800.43</v>
       </c>
       <c r="T113" t="n">
-        <v>7200.47</v>
+        <v>1800.47</v>
       </c>
       <c r="U113" t="n">
         <v>5</v>
       </c>
       <c r="V113" t="n">
-        <v>109.46</v>
+        <v>23.82</v>
       </c>
       <c r="W113" t="n">
-        <v>72.84</v>
+        <v>5.95</v>
       </c>
       <c r="X113" t="n">
-        <v>68.17</v>
+        <v>17.27</v>
       </c>
       <c r="Y113" t="n">
-        <v>72.55</v>
+        <v>19.88</v>
       </c>
       <c r="Z113" t="n">
-        <v>72.90000000000001</v>
+        <v>21.75</v>
       </c>
       <c r="AA113" t="n">
-        <v>95.3</v>
+        <v>30.1</v>
       </c>
       <c r="AB113" t="n">
-        <v>238.37</v>
+        <v>30.1</v>
       </c>
       <c r="AC113" t="n">
         <v>5</v>
@@ -13012,252 +15680,39 @@
       <c r="AJ113" t="n">
         <v>1148.51</v>
       </c>
+      <c r="AK113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9b2a30e095b2a99c7a4efd6f687c21a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae991ae10615842d01d4ebb88da5dac4" ns2:_="" ns3:_="">
-    <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
-    <xsd:import namespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="116ddbad-b67c-4622-b846-55da43670eb8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F376ACE-75C5-4811-A647-19D28BFA7961}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C0A7C6-E0AE-4695-8614-53AB80C9DBEF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1010DAE1-7406-483A-BBBB-C9D52C44F6E4}"/>
 </file>